--- a/target/classes/com/guru99/testData/Testdata_guru99.xlsx
+++ b/target/classes/com/guru99/testData/Testdata_guru99.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14440" windowHeight="3100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14440" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
